--- a/data/trans_bre/P1428-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P1428-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>3.072135581384077</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3.862884084829791</v>
+        <v>3.86288408482979</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>1.062070007241049</v>
@@ -649,7 +649,7 @@
         <v>1.550343615376468</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.9658623483902657</v>
+        <v>0.9658623483902651</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.070933304553694</v>
+        <v>1.482166455102068</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.947223405508751</v>
+        <v>-1.86856841963171</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3878881670958406</v>
+        <v>0.5212697884653691</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.205174576443997</v>
+        <v>1.196541393575339</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1579895831696607</v>
+        <v>0.1912245892637287</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.4342598495723751</v>
+        <v>-0.4080780115122829</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.08237825337782241</v>
+        <v>0.02764902633683316</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.180509653457052</v>
+        <v>0.2494675511142455</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.891011904954043</v>
+        <v>9.169346494268641</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.644209484905053</v>
+        <v>4.714815336239663</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.22481682821731</v>
+        <v>6.502438511751183</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.468906308017927</v>
+        <v>6.17276689669356</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2.741384231235356</v>
+        <v>2.809444211559977</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2.007735653892122</v>
+        <v>1.796595682392352</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>5.611643709706743</v>
+        <v>5.865946641086124</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2.139262666840764</v>
+        <v>2.102568123045418</v>
       </c>
     </row>
     <row r="7">
@@ -749,7 +749,7 @@
         <v>0.2513745505345436</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>1.444292434272946</v>
+        <v>1.444292434272947</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.31710651041813</v>
+        <v>-1.106870882579519</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.394345977810636</v>
+        <v>-2.381617188726221</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.086624507409136</v>
+        <v>-2.170524568594954</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.22119165639009</v>
+        <v>3.228974888601589</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2548795068048657</v>
+        <v>-0.2214098668190144</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4857429604080176</v>
+        <v>-0.4812161145488729</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.5127667511303612</v>
+        <v>-0.5279230750931624</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.5870280154943734</v>
+        <v>0.5632524202158069</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.229777179457965</v>
+        <v>5.580005209513367</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.559899886853164</v>
+        <v>3.668449287171502</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.555827657218954</v>
+        <v>3.712169573338635</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8.751348148979504</v>
+        <v>8.883215634760237</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.281958106683196</v>
+        <v>2.32311329383643</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.373142496909941</v>
+        <v>1.530358633856095</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.884956641801748</v>
+        <v>2.102538748146561</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.81720253735145</v>
+        <v>2.936460753435322</v>
       </c>
     </row>
     <row r="10">
@@ -849,7 +849,7 @@
         <v>3.296259355675871</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1.749871148232072</v>
+        <v>1.749871148232071</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>6.149170393409014</v>
+        <v>6.52248401163998</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.832645002487542</v>
+        <v>2.228820001866608</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5.686404517105673</v>
+        <v>5.786765850013785</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5.3898024302396</v>
+        <v>5.600352271673663</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7031596694685035</v>
+        <v>0.7737784948722951</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.312274118973988</v>
+        <v>0.2315115051261706</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>1.244909465127161</v>
+        <v>1.254588034088668</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.7806891812897878</v>
+        <v>0.7521635214982321</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>20.17737666983087</v>
+        <v>20.05639369886524</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>13.12560541919703</v>
+        <v>12.73509855460052</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>17.80228751162615</v>
+        <v>17.60988317303834</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>15.73740610801391</v>
+        <v>15.76769150592695</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>3.502446868105423</v>
+        <v>3.492453469542081</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.213695564601991</v>
+        <v>2.06744449511568</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>7.580359907976544</v>
+        <v>7.378364638298579</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>3.474270811005348</v>
+        <v>3.405131323095272</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>0.5603698700843672</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4.275024575936381</v>
+        <v>4.275024575936383</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3106471870375673</v>
@@ -949,7 +949,7 @@
         <v>0.1162416786092772</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.6421442438006446</v>
+        <v>0.6421442438006449</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2002212530546447</v>
+        <v>0.2551551233448709</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.181267166740236</v>
+        <v>-2.148356758851707</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.388087656631571</v>
+        <v>-1.464877098069038</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.406276750018851</v>
+        <v>2.138594819316247</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.01810965404070334</v>
+        <v>0.01912441694982231</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3265773055536449</v>
+        <v>-0.3253383571476051</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2530297467190311</v>
+        <v>-0.2642571742086804</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.3036008451513171</v>
+        <v>0.2705116197683854</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>6.20675445396084</v>
+        <v>6.235982065902615</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.416874339987495</v>
+        <v>2.402824948047873</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.859989538984224</v>
+        <v>2.626408083831484</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6.444271825423615</v>
+        <v>6.447711736672011</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.646402440380156</v>
+        <v>0.645724913206806</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5084928686082326</v>
+        <v>0.5021651146262672</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7194065624904312</v>
+        <v>0.643674131857557</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.14680593142184</v>
+        <v>1.129989127525879</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>5.173129916307265</v>
+        <v>5.299068638727236</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>5.737265799433746</v>
+        <v>6.113101637551305</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4.60019768360667</v>
+        <v>4.485913701603564</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9.537796698153752</v>
+        <v>9.644156253800073</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.4577707988853283</v>
+        <v>0.4945020755819527</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8058571859839844</v>
+        <v>0.8779642744527471</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7265869743367808</v>
+        <v>0.6960182934547995</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>1.231901418034224</v>
+        <v>1.215861713018017</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>13.96956819865139</v>
+        <v>13.8245770172918</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>12.64715207738131</v>
+        <v>12.79647919065963</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10.75205692005841</v>
+        <v>10.41336487027646</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>15.27032691566752</v>
+        <v>15.18097753404665</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2.157573354781093</v>
+        <v>2.194957411128297</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>3.220557778621829</v>
+        <v>3.359928095708773</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>3.003401423918881</v>
+        <v>2.868909000031407</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>3.230014428206793</v>
+        <v>3.201995120931042</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>12.90501248258724</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>18.82684597629079</v>
+        <v>18.8268459762908</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>26.69903426018726</v>
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="J19" s="6" t="n">
-        <v>43.19868271182481</v>
+        <v>43.19868271182482</v>
       </c>
     </row>
     <row r="20">
@@ -1162,26 +1162,26 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>21.28608999640049</v>
+        <v>21.40821540231078</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>14.84646992921734</v>
+        <v>14.98219020498227</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>10.84574151460745</v>
+        <v>10.94383794505659</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>16.62666965688369</v>
+        <v>16.60447969348578</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>9.422752093116111</v>
+        <v>8.836359769774514</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>3.351331697670669</v>
+        <v>3.125207749438398</v>
       </c>
       <c r="I20" s="6" t="inlineStr"/>
       <c r="J20" s="6" t="n">
-        <v>10.35919963971922</v>
+        <v>12.01124179214305</v>
       </c>
     </row>
     <row r="21">
@@ -1192,22 +1192,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>26.74304277522558</v>
+        <v>26.78744413520999</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>21.00307888669208</v>
+        <v>20.83181763187283</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>15.33609301881664</v>
+        <v>15.39377930725938</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>21.21481872514178</v>
+        <v>21.2619722189105</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>95.33807567619453</v>
+        <v>94.10372062361751</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>51.56560505437568</v>
+        <v>50.41751126009915</v>
       </c>
       <c r="I21" s="6" t="inlineStr"/>
       <c r="J21" s="6" t="inlineStr"/>
@@ -1256,28 +1256,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>8.870832372626928</v>
+        <v>8.952765273780194</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>5.908779793968093</v>
+        <v>6.002742062300262</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4.583845498820839</v>
+        <v>4.540164960205954</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>8.048395503617369</v>
+        <v>7.98571895520447</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1.131805353136046</v>
+        <v>1.139704716502374</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1.004750413380548</v>
+        <v>1.043716746919972</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1.118787299633049</v>
+        <v>1.110300425527494</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>1.36491348624519</v>
+        <v>1.375013012290106</v>
       </c>
     </row>
     <row r="24">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>11.99996715609187</v>
+        <v>12.07119003563538</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>8.692080823438152</v>
+        <v>8.75586057323005</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.068282204069111</v>
+        <v>6.861530210330262</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10.29778603157612</v>
+        <v>10.31482881153408</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.816739957081386</v>
+        <v>1.829400246970269</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.938678641992032</v>
+        <v>1.91640967146038</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>2.286416620235165</v>
+        <v>2.165725909175217</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>2.157281266665653</v>
+        <v>2.202400044747653</v>
       </c>
     </row>
     <row r="25">
